--- a/data/trans_bre/P16A13-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A13-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P16A13-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A13-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>264,62%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,62%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,26%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,87%</t>
         </is>
       </c>
     </row>
@@ -668,32 +668,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,09; 2,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,16; 0,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,21; 2,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,99; 1,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,82; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,77; 134,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,29%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,5%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,47%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,53%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,8; 0,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,7; 1,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,68; 1,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,82; 1,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,62; 83,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,06; 130,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,18; 161,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,3; 332,21</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,59%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,55%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,44%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,35%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,12; 1,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,31; 2,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,74; 1,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,79; 2,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,29; 81,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,17; 157,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,76; 116,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,23; 237,67</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,74%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,94%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,9%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,45%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,88; 3,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,79; 3,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,11; 1,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,44; 1,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,22; 260,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,67; 101,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,58; 112,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,71; 31,6</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,46%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>116,88%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,52%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,9%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,19; 4,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,89; 7,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,54; 6,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,11; 4,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,29; 186,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,97; 318,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,77; 164,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,1; 64,33</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,39%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,75%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,71%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,37; 4,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,65; 4,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,13; 6,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,94; 6,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,77; 105,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,26; 59,87</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,49; 124,4</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,74; 46,22</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,97%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,51%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,96%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,75%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,08; 1,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,18; 2,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,22; 2,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,5; 2,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,07; 74,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,62; 60,8</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,52; 85,27</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,22; 49,19</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A13-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A13-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-30,87%</t>
+          <t>-64,99%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 1,12</t>
+          <t>-5,99; 0,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-5,53%</t>
+          <t>-14,11%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 1,45</t>
+          <t>-1,98; 1,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-85,3; 332,21</t>
+          <t>-87,01; 298,36</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>57,35%</t>
+          <t>57,6%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 2,57</t>
+          <t>-0,78; 2,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-30,23; 237,67</t>
+          <t>-32,83; 229,77</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-17,45%</t>
+          <t>3,42%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 1,24</t>
+          <t>-2,39; 3,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-45,71; 31,6</t>
+          <t>-38,15; 148,79</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>22,9%</t>
+          <t>22,53%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 4,42</t>
+          <t>-1,11; 4,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 64,33</t>
+          <t>-10,83; 64,35</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,73</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,21</t>
+          <t>-2,1</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>27,39%</t>
+          <t>75,06%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>10,69%</t>
+          <t>49,58%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>45,75%</t>
+          <t>24,51%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>20,71%</t>
+          <t>-17,2%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 4,31</t>
+          <t>-0,58; 6,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 4,66</t>
+          <t>-1,11; 8,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,13; 6,02</t>
+          <t>-2,41; 4,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 6,69</t>
+          <t>-10,05; 3,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-18,77; 105,29</t>
+          <t>-10,92; 272,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-22,26; 59,87</t>
+          <t>-14,21; 171,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 124,4</t>
+          <t>-36,11; 124,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-16,74; 46,22</t>
+          <t>-71,11; 34,57</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>-2,09</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>6,9</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>35,97%</t>
+          <t>-8,64%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>30,51%</t>
+          <t>-16,23%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>37,96%</t>
+          <t>53,88%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>27,75%</t>
+          <t>34,5%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-5,47; 3,72</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-7,24; 3,56</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-0,59; 8,51</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2,54; 11,62</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-52,97; 73,18</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-45,88; 39,53</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-7,42; 177,66</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>10,55; 67,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0,95</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1,25</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1,12</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1,82</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>35,97%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>30,51%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>37,96%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>30,17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>0,08; 1,73</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>0,18; 2,23</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>0,22; 2,11</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>0,5; 2,81</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0,17; 3,31</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>1,07; 74,04</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>3,62; 60,8</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>6,52; 85,27</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>7,22; 49,19</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>3,81; 66,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P16A13-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A13-Edad-trans_bre.xlsx
@@ -668,32 +668,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,09; 2,91</t>
+          <t>0,05; 2,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 0,74</t>
+          <t>-2,25; 0,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 2,01</t>
+          <t>-0,92; 2,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 0,98</t>
+          <t>-7,15; 0,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-33,82; —</t>
+          <t>-57,68; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-89,77; 134,92</t>
+          <t>-100,0; 149,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 0,72</t>
+          <t>-1,75; 0,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 1,64</t>
+          <t>-1,89; 1,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 1,29</t>
+          <t>-1,85; 1,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 1,31</t>
+          <t>-1,76; 1,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-77,62; 83,28</t>
+          <t>-79,63; 90,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-60,06; 130,96</t>
+          <t>-60,91; 112,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-68,18; 161,59</t>
+          <t>-72,19; 135,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-87,01; 298,36</t>
+          <t>-81,52; 345,12</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 1,05</t>
+          <t>-2,17; 1,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 2,44</t>
+          <t>-1,35; 2,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 1,24</t>
+          <t>-1,81; 1,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 2,64</t>
+          <t>-0,63; 2,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-64,29; 81,48</t>
+          <t>-63,46; 75,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-40,17; 157,03</t>
+          <t>-40,33; 124,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-65,76; 116,72</t>
+          <t>-67,21; 131,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-32,83; 229,77</t>
+          <t>-25,96; 272,27</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 3,86</t>
+          <t>-0,84; 3,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 3,92</t>
+          <t>-1,89; 3,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 1,31</t>
+          <t>-1,81; 1,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 3,54</t>
+          <t>-2,49; 3,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,22; 260,95</t>
+          <t>-24,82; 224,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,67; 101,67</t>
+          <t>-28,91; 103,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-66,58; 112,28</t>
+          <t>-64,11; 109,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-38,15; 148,79</t>
+          <t>-38,28; 146,51</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 4,94</t>
+          <t>-0,95; 4,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 7,34</t>
+          <t>1,14; 7,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 6,04</t>
+          <t>-0,73; 6,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 4,39</t>
+          <t>-0,72; 4,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-23,29; 186,98</t>
+          <t>-21,36; 177,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,97; 318,18</t>
+          <t>18,16; 306,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 164,02</t>
+          <t>-12,86; 164,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,83; 64,35</t>
+          <t>-7,71; 70,71</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 6,91</t>
+          <t>-0,52; 6,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 8,32</t>
+          <t>-1,67; 7,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 4,65</t>
+          <t>-2,36; 4,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 3,92</t>
+          <t>-9,79; 4,28</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 272,33</t>
+          <t>-13,0; 257,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-14,21; 171,76</t>
+          <t>-15,86; 162,2</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-36,11; 124,03</t>
+          <t>-35,02; 140,9</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-71,11; 34,57</t>
+          <t>-69,87; 37,31</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 3,72</t>
+          <t>-5,75; 3,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 3,56</t>
+          <t>-8,05; 3,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 8,51</t>
+          <t>-0,79; 8,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,54; 11,62</t>
+          <t>2,36; 11,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-52,97; 73,18</t>
+          <t>-53,14; 77,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-45,88; 39,53</t>
+          <t>-48,48; 39,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 177,66</t>
+          <t>-10,29; 167,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>10,55; 67,48</t>
+          <t>9,88; 67,53</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,08; 1,73</t>
+          <t>0,17; 1,77</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,18; 2,23</t>
+          <t>0,14; 2,34</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,11</t>
+          <t>0,11; 2,07</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,17; 3,31</t>
+          <t>0,09; 3,27</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,07; 74,04</t>
+          <t>4,84; 78,22</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>3,62; 60,8</t>
+          <t>2,78; 64,62</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,52; 85,27</t>
+          <t>2,88; 80,53</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3,81; 66,2</t>
+          <t>2,49; 62,71</t>
         </is>
       </c>
     </row>
